--- a/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
+++ b/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1578,7 +1578,15 @@
         <v>45748</v>
       </c>
       <c r="B149">
-        <v>-0.2766911554241067</v>
+        <v>-0.2099036351493167</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
+++ b/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
@@ -14,21 +14,465 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>1988Q3</t>
+  </si>
+  <si>
+    <t>1988Q4</t>
+  </si>
+  <si>
+    <t>1989Q1</t>
+  </si>
+  <si>
+    <t>1989Q2</t>
+  </si>
+  <si>
+    <t>1989Q3</t>
+  </si>
+  <si>
+    <t>1989Q4</t>
+  </si>
+  <si>
+    <t>1990Q1</t>
+  </si>
+  <si>
+    <t>1990Q2</t>
+  </si>
+  <si>
+    <t>1990Q3</t>
+  </si>
+  <si>
+    <t>1990Q4</t>
+  </si>
+  <si>
+    <t>1991Q1</t>
+  </si>
+  <si>
+    <t>1991Q2</t>
+  </si>
+  <si>
+    <t>1991Q3</t>
+  </si>
+  <si>
+    <t>1991Q4</t>
+  </si>
+  <si>
+    <t>1992Q1</t>
+  </si>
+  <si>
+    <t>1992Q2</t>
+  </si>
+  <si>
+    <t>1992Q3</t>
+  </si>
+  <si>
+    <t>1992Q4</t>
+  </si>
+  <si>
+    <t>1993Q1</t>
+  </si>
+  <si>
+    <t>1993Q2</t>
+  </si>
+  <si>
+    <t>1993Q3</t>
+  </si>
+  <si>
+    <t>1993Q4</t>
+  </si>
+  <si>
+    <t>1994Q1</t>
+  </si>
+  <si>
+    <t>1994Q2</t>
+  </si>
+  <si>
+    <t>1994Q3</t>
+  </si>
+  <si>
+    <t>1994Q4</t>
+  </si>
+  <si>
+    <t>1995Q1</t>
+  </si>
+  <si>
+    <t>1995Q2</t>
+  </si>
+  <si>
+    <t>1995Q3</t>
+  </si>
+  <si>
+    <t>1995Q4</t>
+  </si>
+  <si>
+    <t>1996Q1</t>
+  </si>
+  <si>
+    <t>1996Q2</t>
+  </si>
+  <si>
+    <t>1996Q3</t>
+  </si>
+  <si>
+    <t>1996Q4</t>
+  </si>
+  <si>
+    <t>1997Q1</t>
+  </si>
+  <si>
+    <t>1997Q2</t>
+  </si>
+  <si>
+    <t>1997Q3</t>
+  </si>
+  <si>
+    <t>1997Q4</t>
+  </si>
+  <si>
+    <t>1998Q1</t>
+  </si>
+  <si>
+    <t>1998Q2</t>
+  </si>
+  <si>
+    <t>1998Q3</t>
+  </si>
+  <si>
+    <t>1998Q4</t>
+  </si>
+  <si>
+    <t>1999Q1</t>
+  </si>
+  <si>
+    <t>1999Q2</t>
+  </si>
+  <si>
+    <t>1999Q3</t>
+  </si>
+  <si>
+    <t>1999Q4</t>
+  </si>
+  <si>
+    <t>2000Q1</t>
+  </si>
+  <si>
+    <t>2000Q2</t>
+  </si>
+  <si>
+    <t>2000Q3</t>
+  </si>
+  <si>
+    <t>2000Q4</t>
+  </si>
+  <si>
+    <t>2001Q1</t>
+  </si>
+  <si>
+    <t>2001Q2</t>
+  </si>
+  <si>
+    <t>2001Q3</t>
+  </si>
+  <si>
+    <t>2001Q4</t>
+  </si>
+  <si>
+    <t>2002Q1</t>
+  </si>
+  <si>
+    <t>2002Q2</t>
+  </si>
+  <si>
+    <t>2002Q3</t>
+  </si>
+  <si>
+    <t>2002Q4</t>
+  </si>
+  <si>
+    <t>2003Q1</t>
+  </si>
+  <si>
+    <t>2003Q2</t>
+  </si>
+  <si>
+    <t>2003Q3</t>
+  </si>
+  <si>
+    <t>2003Q4</t>
+  </si>
+  <si>
+    <t>2004Q1</t>
+  </si>
+  <si>
+    <t>2004Q2</t>
+  </si>
+  <si>
+    <t>2004Q3</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q1</t>
+  </si>
+  <si>
+    <t>2005Q2</t>
+  </si>
+  <si>
+    <t>2005Q3</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q1</t>
+  </si>
+  <si>
+    <t>2006Q2</t>
+  </si>
+  <si>
+    <t>2006Q3</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q1</t>
+  </si>
+  <si>
+    <t>2007Q2</t>
+  </si>
+  <si>
+    <t>2007Q3</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q1</t>
+  </si>
+  <si>
+    <t>2008Q2</t>
+  </si>
+  <si>
+    <t>2008Q3</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q1</t>
+  </si>
+  <si>
+    <t>2009Q2</t>
+  </si>
+  <si>
+    <t>2009Q3</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q1</t>
+  </si>
+  <si>
+    <t>2010Q2</t>
+  </si>
+  <si>
+    <t>2010Q3</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q1</t>
+  </si>
+  <si>
+    <t>2011Q2</t>
+  </si>
+  <si>
+    <t>2011Q3</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q1</t>
+  </si>
+  <si>
+    <t>2020Q2</t>
+  </si>
+  <si>
+    <t>2020Q3</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q1</t>
+  </si>
+  <si>
+    <t>2025Q2</t>
+  </si>
+  <si>
+    <t>2025Q3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -81,12 +525,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -398,1192 +839,1192 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
-        <v>32325</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1.098540744384312</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
-        <v>32417</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1.200129743756086</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>32509</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1.025641025641024</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>32599</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0.4124365482233533</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
-        <v>32690</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.9004739336492815</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
-        <v>32782</v>
+      <c r="A7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1.174260216063888</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
-        <v>32874</v>
+      <c r="A8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2.073661405137726</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
-        <v>32964</v>
+      <c r="A9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.4851425106124861</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>33055</v>
+      <c r="A10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>2.112251056125549</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>33147</v>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1.773049645390058</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>33239</v>
+      <c r="A12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2.758420441347268</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>33329</v>
+      <c r="A13" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>-0.4801581697500401</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>33420</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>-0.156094792110117</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>33512</v>
+      <c r="A15" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1.43547470153497</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
-        <v>33604</v>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1.373125963289883</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
-        <v>33695</v>
+      <c r="A17" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-0.6219765031098669</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
-        <v>33786</v>
+      <c r="A18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>-0.2364394993045921</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
-        <v>33878</v>
+      <c r="A19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>-0.2788233653980243</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
-        <v>33970</v>
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>-0.7968684468055465</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2">
-        <v>34060</v>
+      <c r="A21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0.01409244644871071</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2">
-        <v>34151</v>
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0.5917993518388075</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2">
-        <v>34243</v>
+      <c r="A23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
         <v>-0.08404538450763731</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2">
-        <v>34335</v>
+      <c r="A24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
         <v>1.415954016542836</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2">
-        <v>34425</v>
+      <c r="A25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0.5529444290848651</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2">
-        <v>34516</v>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0.5911465493538725</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2">
-        <v>34608</v>
+      <c r="A27" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1.107011070110704</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2">
-        <v>34700</v>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
         <v>-0.3919978372533202</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2">
-        <v>34790</v>
+      <c r="A29" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
         <v>0.8006513773917809</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2">
-        <v>34881</v>
+      <c r="A30" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0.2019386106623663</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2">
-        <v>34973</v>
+      <c r="A31" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0.04030632809349311</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2">
-        <v>35065</v>
+      <c r="A32" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
         <v>-0.7117915659414276</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2">
-        <v>35156</v>
+      <c r="A33" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
         <v>1.366157175706737</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2">
-        <v>35247</v>
+      <c r="A34" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0.3869762476648069</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2">
-        <v>35339</v>
+      <c r="A35" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0.9171872923035993</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2">
-        <v>35431</v>
+      <c r="A36" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
         <v>-0.513698630136987</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2">
-        <v>35521</v>
+      <c r="A37" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
         <v>1.11214087117702</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2">
-        <v>35612</v>
+      <c r="A38" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0.3928244074898483</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2">
-        <v>35704</v>
+      <c r="A39" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0.7434459371331592</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2">
-        <v>35796</v>
+      <c r="A40" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0.95805282237184</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2">
-        <v>35886</v>
+      <c r="A41" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
         <v>-0.4616568350859187</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2">
-        <v>35977</v>
+      <c r="A42" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0.4895645452202981</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2">
-        <v>36069</v>
+      <c r="A43" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
         <v>-0.02564102564102054</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2">
-        <v>36161</v>
+      <c r="A44" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
         <v>1.154142087714788</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2">
-        <v>36251</v>
+      <c r="A45" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
         <v>-0.1267748478701753</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2">
-        <v>36342</v>
+      <c r="A46" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
         <v>1.370906321401369</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2">
-        <v>36434</v>
+      <c r="A47" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0.4758327072376602</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2">
-        <v>36526</v>
+      <c r="A48" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
         <v>1.545363908275186</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2">
-        <v>36617</v>
+      <c r="A49" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
         <v>0.7977417771232099</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2">
-        <v>36708</v>
+      <c r="A50" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0.07305491294289818</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2">
-        <v>36800</v>
+      <c r="A51" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B51">
         <v>-0.4258425599221248</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2">
-        <v>36892</v>
+      <c r="A52" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B52">
         <v>2.126099706744862</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2">
-        <v>36982</v>
+      <c r="A53" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B53">
         <v>-0.2512562814070277</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2">
-        <v>37073</v>
+      <c r="A54" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2">
-        <v>37165</v>
+      <c r="A55" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B55">
         <v>-0.3118627803766404</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2">
-        <v>37257</v>
+      <c r="A56" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B56">
         <v>-0.4692576103958616</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2">
-        <v>37347</v>
+      <c r="A57" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B57">
         <v>0.3868471953578426</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="2">
-        <v>37438</v>
+      <c r="A58" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B58">
         <v>0.68641618497109</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2">
-        <v>37530</v>
+      <c r="A59" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B59">
         <v>-0.2750867121157804</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="2">
-        <v>37622</v>
+      <c r="A60" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B60">
         <v>-1.355241065003592</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2">
-        <v>37712</v>
+      <c r="A61" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
         <v>0.1458966565349599</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2">
-        <v>37803</v>
+      <c r="A62" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B62">
         <v>0.9105256768240864</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="2">
-        <v>37895</v>
+      <c r="A63" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B63">
         <v>0.1203079884504263</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="2">
-        <v>37987</v>
+      <c r="A64" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B64">
         <v>-0.1562124489305401</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="2">
-        <v>38078</v>
+      <c r="A65" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B65">
         <v>0.589721988205554</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2">
-        <v>38169</v>
+      <c r="A66" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B66">
         <v>-0.323043790380469</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="2">
-        <v>38261</v>
+      <c r="A67" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B67">
         <v>-0.03601008282319185</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="2">
-        <v>38353</v>
+      <c r="A68" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B68">
         <v>0.1560999039385152</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="2">
-        <v>38443</v>
+      <c r="A69" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B69">
         <v>0.5994485073732168</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="2">
-        <v>38534</v>
+      <c r="A70" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B70">
         <v>0.7865570253843364</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2">
-        <v>38626</v>
+      <c r="A71" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B71">
         <v>0.3783847700130157</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2">
-        <v>38718</v>
+      <c r="A72" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B72">
         <v>1.119095299799744</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="2">
-        <v>38808</v>
+      <c r="A73" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B73">
         <v>1.712488350419384</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="2">
-        <v>38899</v>
+      <c r="A74" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B74">
         <v>0.7559271561104073</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="2">
-        <v>38991</v>
+      <c r="A75" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B75">
         <v>1.466409003069235</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="2">
-        <v>39083</v>
+      <c r="A76" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B76">
         <v>0.1344387183508742</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="2">
-        <v>39173</v>
+      <c r="A77" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B77">
         <v>0.6601029313045462</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="2">
-        <v>39264</v>
+      <c r="A78" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0.5112815382905501</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="2">
-        <v>39356</v>
+      <c r="A79" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0.7409045670684369</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="2">
-        <v>39448</v>
+      <c r="A80" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0.5817782656421527</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="2">
-        <v>39539</v>
+      <c r="A81" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B81">
         <v>-0.3601440576230474</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="2">
-        <v>39630</v>
+      <c r="A82" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B82">
         <v>-0.547645125958379</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="2">
-        <v>39722</v>
+      <c r="A83" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B83">
         <v>-1.552863436123344</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="2">
-        <v>39814</v>
+      <c r="A84" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B84">
         <v>-4.687325204161537</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="2">
-        <v>39904</v>
+      <c r="A85" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0.2464788732394293</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="2">
-        <v>39995</v>
+      <c r="A86" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0.6205362369745945</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="2">
-        <v>40087</v>
+      <c r="A87" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0.7679776588317392</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="2">
-        <v>40179</v>
+      <c r="A88" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B88">
         <v>0.7274826789838449</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="2">
-        <v>40269</v>
+      <c r="A89" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B89">
         <v>2.166685773243151</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="2">
-        <v>40360</v>
+      <c r="A90" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0.9649910233393171</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="2">
-        <v>40452</v>
+      <c r="A91" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0.6557012669481986</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="2">
-        <v>40544</v>
+      <c r="A92" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B92">
         <v>1.810754112840897</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="2">
-        <v>40634</v>
+      <c r="A93" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B93">
         <v>0.2711202689513068</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="2">
-        <v>40725</v>
+      <c r="A94" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0.5407743889249406</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="2">
-        <v>40817</v>
+      <c r="A95" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B95">
         <v>-0.01075731497417266</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="2">
-        <v>40909</v>
+      <c r="A96" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B96">
         <v>0.2151694459386798</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="2">
-        <v>41000</v>
+      <c r="A97" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0.1073537305421302</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="2">
-        <v>41091</v>
+      <c r="A98" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0.2037533512064319</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="2">
-        <v>41183</v>
+      <c r="A99" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B99">
         <v>-0.2996575342465766</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="2">
-        <v>41275</v>
+      <c r="A100" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B100">
         <v>-0.5581794761700257</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="2">
-        <v>41365</v>
+      <c r="A101" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B101">
         <v>1.165803108808288</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="2">
-        <v>41456</v>
+      <c r="A102" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B102">
         <v>0.5121638924455868</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="2">
-        <v>41548</v>
+      <c r="A103" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0.1486199575371556</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="2">
-        <v>41640</v>
+      <c r="A104" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B104">
         <v>1.049395802416785</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="2">
-        <v>41730</v>
+      <c r="A105" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B105">
         <v>-0.02097975453686774</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="2">
-        <v>41821</v>
+      <c r="A106" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B106">
         <v>0.5560801594795941</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="2">
-        <v>41913</v>
+      <c r="A107" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B107">
         <v>0.7616861435726103</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="2">
-        <v>42005</v>
+      <c r="A108" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B108">
         <v>-0.2174588381484869</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="2">
-        <v>42095</v>
+      <c r="A109" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0.5188875051888751</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="2">
-        <v>42186</v>
+      <c r="A110" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B110">
         <v>0.5368573198430684</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="2">
-        <v>42278</v>
+      <c r="A111" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B111">
         <v>0.5134524543027316</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="2">
-        <v>42370</v>
+      <c r="A112" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B112">
         <v>0.8786268900694724</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="2">
-        <v>42461</v>
+      <c r="A113" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0.2228073728985202</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="2">
-        <v>42552</v>
+      <c r="A114" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B114">
         <v>0.3536782538399439</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="2">
-        <v>42644</v>
+      <c r="A115" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0.4631960527640658</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="2">
-        <v>42736</v>
+      <c r="A116" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B116">
         <v>1.292973839831619</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="2">
-        <v>42826</v>
+      <c r="A117" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B117">
         <v>0.7124480506629713</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="2">
-        <v>42917</v>
+      <c r="A118" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0.7958341520927513</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="2">
-        <v>43009</v>
+      <c r="A119" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B119">
         <v>1.01374402963251</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="2">
-        <v>43101</v>
+      <c r="A120" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B120">
         <v>-0.5500337740036604</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="2">
-        <v>43191</v>
+      <c r="A121" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B121">
         <v>0.7859499320784032</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="2">
-        <v>43282</v>
+      <c r="A122" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B122">
         <v>-0.654664484451725</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="2">
-        <v>43374</v>
+      <c r="A123" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="B123">
         <v>0.4457796298090977</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="2">
-        <v>43466</v>
+      <c r="A124" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B124">
         <v>0.6560540279787676</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="2">
-        <v>43556</v>
+      <c r="A125" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="B125">
         <v>0.05750982459503716</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="2">
-        <v>43647</v>
+      <c r="A126" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B126">
         <v>0.3831784653702516</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="2">
-        <v>43739</v>
+      <c r="A127" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B127">
         <v>-0.3340013360053521</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="2">
-        <v>43831</v>
+      <c r="A128" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B128">
         <v>-2.029873611643053</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="2">
-        <v>43922</v>
+      <c r="A129" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B129">
         <v>-8.874120406567631</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="2">
-        <v>44013</v>
+      <c r="A130" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B130">
         <v>8.67653367653368</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="2">
-        <v>44105</v>
+      <c r="A131" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B131">
         <v>0.9671370768775328</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="2">
-        <v>44197</v>
+      <c r="A132" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B132">
         <v>-0.6157755840093788</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="2">
-        <v>44287</v>
+      <c r="A133" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B133">
         <v>2.350511408339877</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="2">
-        <v>44378</v>
+      <c r="A134" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B134">
         <v>0.08648025367541406</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="2">
-        <v>44470</v>
+      <c r="A135" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B135">
         <v>0.5376344086021527</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="2">
-        <v>44562</v>
+      <c r="A136" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B136">
         <v>0.6779984721161268</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="2">
-        <v>44652</v>
+      <c r="A137" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B137">
         <v>0.1517594612539093</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="2">
-        <v>44743</v>
+      <c r="A138" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B138">
         <v>0.2935884079931833</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="2">
-        <v>44835</v>
+      <c r="A139" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="B139">
         <v>-0.3493862134088806</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="2">
-        <v>44927</v>
+      <c r="A140" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="B140">
         <v>-0.473798919738463</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="2">
-        <v>45017</v>
+      <c r="A141" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B141">
         <v>-0.07616871370084576</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="2">
-        <v>45108</v>
+      <c r="A142" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="2">
-        <v>45200</v>
+      <c r="A143" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="B143">
         <v>-0.2763220581229216</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="2">
-        <v>45292</v>
+      <c r="A144" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B144">
         <v>-0.1051022358111976</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="2">
-        <v>45383</v>
+      <c r="A145" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="B145">
         <v>-0.2582496413199388</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="2">
-        <v>45474</v>
+      <c r="A146" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B146">
         <v>0.01917913310317992</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="2">
-        <v>45566</v>
+      <c r="A147" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B147">
         <v>0.1821668264621263</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="2">
-        <v>45658</v>
+      <c r="A148" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B148">
         <v>0.3062494018566441</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="2">
-        <v>45748</v>
+      <c r="A149" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="B149">
         <v>-0.2099036351493167</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="2">
-        <v>45839</v>
+      <c r="A150" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B150">
         <v>0</v>

--- a/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
+++ b/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
@@ -14,465 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>date</t>
   </si>
-  <si>
-    <t>1988Q3</t>
-  </si>
-  <si>
-    <t>1988Q4</t>
-  </si>
-  <si>
-    <t>1989Q1</t>
-  </si>
-  <si>
-    <t>1989Q2</t>
-  </si>
-  <si>
-    <t>1989Q3</t>
-  </si>
-  <si>
-    <t>1989Q4</t>
-  </si>
-  <si>
-    <t>1990Q1</t>
-  </si>
-  <si>
-    <t>1990Q2</t>
-  </si>
-  <si>
-    <t>1990Q3</t>
-  </si>
-  <si>
-    <t>1990Q4</t>
-  </si>
-  <si>
-    <t>1991Q1</t>
-  </si>
-  <si>
-    <t>1991Q2</t>
-  </si>
-  <si>
-    <t>1991Q3</t>
-  </si>
-  <si>
-    <t>1991Q4</t>
-  </si>
-  <si>
-    <t>1992Q1</t>
-  </si>
-  <si>
-    <t>1992Q2</t>
-  </si>
-  <si>
-    <t>1992Q3</t>
-  </si>
-  <si>
-    <t>1992Q4</t>
-  </si>
-  <si>
-    <t>1993Q1</t>
-  </si>
-  <si>
-    <t>1993Q2</t>
-  </si>
-  <si>
-    <t>1993Q3</t>
-  </si>
-  <si>
-    <t>1993Q4</t>
-  </si>
-  <si>
-    <t>1994Q1</t>
-  </si>
-  <si>
-    <t>1994Q2</t>
-  </si>
-  <si>
-    <t>1994Q3</t>
-  </si>
-  <si>
-    <t>1994Q4</t>
-  </si>
-  <si>
-    <t>1995Q1</t>
-  </si>
-  <si>
-    <t>1995Q2</t>
-  </si>
-  <si>
-    <t>1995Q3</t>
-  </si>
-  <si>
-    <t>1995Q4</t>
-  </si>
-  <si>
-    <t>1996Q1</t>
-  </si>
-  <si>
-    <t>1996Q2</t>
-  </si>
-  <si>
-    <t>1996Q3</t>
-  </si>
-  <si>
-    <t>1996Q4</t>
-  </si>
-  <si>
-    <t>1997Q1</t>
-  </si>
-  <si>
-    <t>1997Q2</t>
-  </si>
-  <si>
-    <t>1997Q3</t>
-  </si>
-  <si>
-    <t>1997Q4</t>
-  </si>
-  <si>
-    <t>1998Q1</t>
-  </si>
-  <si>
-    <t>1998Q2</t>
-  </si>
-  <si>
-    <t>1998Q3</t>
-  </si>
-  <si>
-    <t>1998Q4</t>
-  </si>
-  <si>
-    <t>1999Q1</t>
-  </si>
-  <si>
-    <t>1999Q2</t>
-  </si>
-  <si>
-    <t>1999Q3</t>
-  </si>
-  <si>
-    <t>1999Q4</t>
-  </si>
-  <si>
-    <t>2000Q1</t>
-  </si>
-  <si>
-    <t>2000Q2</t>
-  </si>
-  <si>
-    <t>2000Q3</t>
-  </si>
-  <si>
-    <t>2000Q4</t>
-  </si>
-  <si>
-    <t>2001Q1</t>
-  </si>
-  <si>
-    <t>2001Q2</t>
-  </si>
-  <si>
-    <t>2001Q3</t>
-  </si>
-  <si>
-    <t>2001Q4</t>
-  </si>
-  <si>
-    <t>2002Q1</t>
-  </si>
-  <si>
-    <t>2002Q2</t>
-  </si>
-  <si>
-    <t>2002Q3</t>
-  </si>
-  <si>
-    <t>2002Q4</t>
-  </si>
-  <si>
-    <t>2003Q1</t>
-  </si>
-  <si>
-    <t>2003Q2</t>
-  </si>
-  <si>
-    <t>2003Q3</t>
-  </si>
-  <si>
-    <t>2003Q4</t>
-  </si>
-  <si>
-    <t>2004Q1</t>
-  </si>
-  <si>
-    <t>2004Q2</t>
-  </si>
-  <si>
-    <t>2004Q3</t>
-  </si>
-  <si>
-    <t>2004Q4</t>
-  </si>
-  <si>
-    <t>2005Q1</t>
-  </si>
-  <si>
-    <t>2005Q2</t>
-  </si>
-  <si>
-    <t>2005Q3</t>
-  </si>
-  <si>
-    <t>2005Q4</t>
-  </si>
-  <si>
-    <t>2006Q1</t>
-  </si>
-  <si>
-    <t>2006Q2</t>
-  </si>
-  <si>
-    <t>2006Q3</t>
-  </si>
-  <si>
-    <t>2006Q4</t>
-  </si>
-  <si>
-    <t>2007Q1</t>
-  </si>
-  <si>
-    <t>2007Q2</t>
-  </si>
-  <si>
-    <t>2007Q3</t>
-  </si>
-  <si>
-    <t>2007Q4</t>
-  </si>
-  <si>
-    <t>2008Q1</t>
-  </si>
-  <si>
-    <t>2008Q2</t>
-  </si>
-  <si>
-    <t>2008Q3</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q1</t>
-  </si>
-  <si>
-    <t>2009Q2</t>
-  </si>
-  <si>
-    <t>2009Q3</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q1</t>
-  </si>
-  <si>
-    <t>2010Q2</t>
-  </si>
-  <si>
-    <t>2010Q3</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q1</t>
-  </si>
-  <si>
-    <t>2011Q2</t>
-  </si>
-  <si>
-    <t>2011Q3</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q1</t>
-  </si>
-  <si>
-    <t>2012Q2</t>
-  </si>
-  <si>
-    <t>2012Q3</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q1</t>
-  </si>
-  <si>
-    <t>2013Q2</t>
-  </si>
-  <si>
-    <t>2013Q3</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q1</t>
-  </si>
-  <si>
-    <t>2014Q2</t>
-  </si>
-  <si>
-    <t>2014Q3</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q1</t>
-  </si>
-  <si>
-    <t>2015Q2</t>
-  </si>
-  <si>
-    <t>2015Q3</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q1</t>
-  </si>
-  <si>
-    <t>2016Q2</t>
-  </si>
-  <si>
-    <t>2016Q3</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q1</t>
-  </si>
-  <si>
-    <t>2017Q2</t>
-  </si>
-  <si>
-    <t>2017Q3</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q1</t>
-  </si>
-  <si>
-    <t>2018Q2</t>
-  </si>
-  <si>
-    <t>2018Q3</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q1</t>
-  </si>
-  <si>
-    <t>2019Q2</t>
-  </si>
-  <si>
-    <t>2019Q3</t>
-  </si>
-  <si>
-    <t>2019Q4</t>
-  </si>
-  <si>
-    <t>2020Q1</t>
-  </si>
-  <si>
-    <t>2020Q2</t>
-  </si>
-  <si>
-    <t>2020Q3</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q1</t>
-  </si>
-  <si>
-    <t>2021Q2</t>
-  </si>
-  <si>
-    <t>2021Q3</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2022Q1</t>
-  </si>
-  <si>
-    <t>2022Q2</t>
-  </si>
-  <si>
-    <t>2022Q3</t>
-  </si>
-  <si>
-    <t>2022Q4</t>
-  </si>
-  <si>
-    <t>2023Q1</t>
-  </si>
-  <si>
-    <t>2023Q2</t>
-  </si>
-  <si>
-    <t>2023Q3</t>
-  </si>
-  <si>
-    <t>2023Q4</t>
-  </si>
-  <si>
-    <t>2024Q1</t>
-  </si>
-  <si>
-    <t>2024Q2</t>
-  </si>
-  <si>
-    <t>2024Q3</t>
-  </si>
-  <si>
-    <t>2024Q4</t>
-  </si>
-  <si>
-    <t>2025Q1</t>
-  </si>
-  <si>
-    <t>2025Q2</t>
-  </si>
-  <si>
-    <t>2025Q3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -525,9 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -839,1192 +398,1192 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2">
+        <v>32325</v>
       </c>
       <c r="B2">
         <v>1.098540744384312</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>32417</v>
       </c>
       <c r="B3">
         <v>1.200129743756086</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="2">
+        <v>32509</v>
       </c>
       <c r="B4">
         <v>1.025641025641024</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="2">
+        <v>32599</v>
       </c>
       <c r="B5">
         <v>0.4124365482233533</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="2">
+        <v>32690</v>
       </c>
       <c r="B6">
         <v>0.9004739336492815</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="2">
+        <v>32782</v>
       </c>
       <c r="B7">
         <v>1.174260216063888</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="2">
+        <v>32874</v>
       </c>
       <c r="B8">
         <v>2.073661405137726</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="2">
+        <v>32964</v>
       </c>
       <c r="B9">
         <v>0.4851425106124861</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="2">
+        <v>33055</v>
       </c>
       <c r="B10">
         <v>2.112251056125549</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="2">
+        <v>33147</v>
       </c>
       <c r="B11">
         <v>1.773049645390058</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="2">
+        <v>33239</v>
       </c>
       <c r="B12">
         <v>2.758420441347268</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="2">
+        <v>33329</v>
       </c>
       <c r="B13">
         <v>-0.4801581697500401</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" s="2">
+        <v>33420</v>
       </c>
       <c r="B14">
         <v>-0.156094792110117</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="2">
+        <v>33512</v>
       </c>
       <c r="B15">
         <v>1.43547470153497</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16" s="2">
+        <v>33604</v>
       </c>
       <c r="B16">
         <v>1.373125963289883</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+      <c r="A17" s="2">
+        <v>33695</v>
       </c>
       <c r="B17">
         <v>-0.6219765031098669</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="2">
+        <v>33786</v>
       </c>
       <c r="B18">
         <v>-0.2364394993045921</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
+      <c r="A19" s="2">
+        <v>33878</v>
       </c>
       <c r="B19">
         <v>-0.2788233653980243</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="2">
+        <v>33970</v>
       </c>
       <c r="B20">
         <v>-0.7968684468055465</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
+      <c r="A21" s="2">
+        <v>34060</v>
       </c>
       <c r="B21">
         <v>0.01409244644871071</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
+      <c r="A22" s="2">
+        <v>34151</v>
       </c>
       <c r="B22">
         <v>0.5917993518388075</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
+      <c r="A23" s="2">
+        <v>34243</v>
       </c>
       <c r="B23">
         <v>-0.08404538450763731</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
+      <c r="A24" s="2">
+        <v>34335</v>
       </c>
       <c r="B24">
         <v>1.415954016542836</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
+      <c r="A25" s="2">
+        <v>34425</v>
       </c>
       <c r="B25">
         <v>0.5529444290848651</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
+      <c r="A26" s="2">
+        <v>34516</v>
       </c>
       <c r="B26">
         <v>0.5911465493538725</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
+      <c r="A27" s="2">
+        <v>34608</v>
       </c>
       <c r="B27">
         <v>1.107011070110704</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
+      <c r="A28" s="2">
+        <v>34700</v>
       </c>
       <c r="B28">
         <v>-0.3919978372533202</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
+      <c r="A29" s="2">
+        <v>34790</v>
       </c>
       <c r="B29">
         <v>0.8006513773917809</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
+      <c r="A30" s="2">
+        <v>34881</v>
       </c>
       <c r="B30">
         <v>0.2019386106623663</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
+      <c r="A31" s="2">
+        <v>34973</v>
       </c>
       <c r="B31">
         <v>0.04030632809349311</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
+      <c r="A32" s="2">
+        <v>35065</v>
       </c>
       <c r="B32">
         <v>-0.7117915659414276</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
+      <c r="A33" s="2">
+        <v>35156</v>
       </c>
       <c r="B33">
         <v>1.366157175706737</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
+      <c r="A34" s="2">
+        <v>35247</v>
       </c>
       <c r="B34">
         <v>0.3869762476648069</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
+      <c r="A35" s="2">
+        <v>35339</v>
       </c>
       <c r="B35">
         <v>0.9171872923035993</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
+      <c r="A36" s="2">
+        <v>35431</v>
       </c>
       <c r="B36">
         <v>-0.513698630136987</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
+      <c r="A37" s="2">
+        <v>35521</v>
       </c>
       <c r="B37">
         <v>1.11214087117702</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
+      <c r="A38" s="2">
+        <v>35612</v>
       </c>
       <c r="B38">
         <v>0.3928244074898483</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
+      <c r="A39" s="2">
+        <v>35704</v>
       </c>
       <c r="B39">
         <v>0.7434459371331592</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
+      <c r="A40" s="2">
+        <v>35796</v>
       </c>
       <c r="B40">
         <v>0.95805282237184</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
+      <c r="A41" s="2">
+        <v>35886</v>
       </c>
       <c r="B41">
         <v>-0.4616568350859187</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
+      <c r="A42" s="2">
+        <v>35977</v>
       </c>
       <c r="B42">
         <v>0.4895645452202981</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>43</v>
+      <c r="A43" s="2">
+        <v>36069</v>
       </c>
       <c r="B43">
         <v>-0.02564102564102054</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
+      <c r="A44" s="2">
+        <v>36161</v>
       </c>
       <c r="B44">
         <v>1.154142087714788</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
+      <c r="A45" s="2">
+        <v>36251</v>
       </c>
       <c r="B45">
         <v>-0.1267748478701753</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
+      <c r="A46" s="2">
+        <v>36342</v>
       </c>
       <c r="B46">
         <v>1.370906321401369</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>47</v>
+      <c r="A47" s="2">
+        <v>36434</v>
       </c>
       <c r="B47">
         <v>0.4758327072376602</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
+      <c r="A48" s="2">
+        <v>36526</v>
       </c>
       <c r="B48">
         <v>1.545363908275186</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
+      <c r="A49" s="2">
+        <v>36617</v>
       </c>
       <c r="B49">
         <v>0.7977417771232099</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
+      <c r="A50" s="2">
+        <v>36708</v>
       </c>
       <c r="B50">
         <v>0.07305491294289818</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
+      <c r="A51" s="2">
+        <v>36800</v>
       </c>
       <c r="B51">
         <v>-0.4258425599221248</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
+      <c r="A52" s="2">
+        <v>36892</v>
       </c>
       <c r="B52">
         <v>2.126099706744862</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
+      <c r="A53" s="2">
+        <v>36982</v>
       </c>
       <c r="B53">
         <v>-0.2512562814070277</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
+      <c r="A54" s="2">
+        <v>37073</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>55</v>
+      <c r="A55" s="2">
+        <v>37165</v>
       </c>
       <c r="B55">
         <v>-0.3118627803766404</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
+      <c r="A56" s="2">
+        <v>37257</v>
       </c>
       <c r="B56">
         <v>-0.4692576103958616</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>57</v>
+      <c r="A57" s="2">
+        <v>37347</v>
       </c>
       <c r="B57">
         <v>0.3868471953578426</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
+      <c r="A58" s="2">
+        <v>37438</v>
       </c>
       <c r="B58">
         <v>0.68641618497109</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
+      <c r="A59" s="2">
+        <v>37530</v>
       </c>
       <c r="B59">
         <v>-0.2750867121157804</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>60</v>
+      <c r="A60" s="2">
+        <v>37622</v>
       </c>
       <c r="B60">
         <v>-1.355241065003592</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
+      <c r="A61" s="2">
+        <v>37712</v>
       </c>
       <c r="B61">
         <v>0.1458966565349599</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>62</v>
+      <c r="A62" s="2">
+        <v>37803</v>
       </c>
       <c r="B62">
         <v>0.9105256768240864</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>63</v>
+      <c r="A63" s="2">
+        <v>37895</v>
       </c>
       <c r="B63">
         <v>0.1203079884504263</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>64</v>
+      <c r="A64" s="2">
+        <v>37987</v>
       </c>
       <c r="B64">
         <v>-0.1562124489305401</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
+      <c r="A65" s="2">
+        <v>38078</v>
       </c>
       <c r="B65">
         <v>0.589721988205554</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
-        <v>66</v>
+      <c r="A66" s="2">
+        <v>38169</v>
       </c>
       <c r="B66">
         <v>-0.323043790380469</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>67</v>
+      <c r="A67" s="2">
+        <v>38261</v>
       </c>
       <c r="B67">
         <v>-0.03601008282319185</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
+      <c r="A68" s="2">
+        <v>38353</v>
       </c>
       <c r="B68">
         <v>0.1560999039385152</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>69</v>
+      <c r="A69" s="2">
+        <v>38443</v>
       </c>
       <c r="B69">
         <v>0.5994485073732168</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>70</v>
+      <c r="A70" s="2">
+        <v>38534</v>
       </c>
       <c r="B70">
         <v>0.7865570253843364</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>71</v>
+      <c r="A71" s="2">
+        <v>38626</v>
       </c>
       <c r="B71">
         <v>0.3783847700130157</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>72</v>
+      <c r="A72" s="2">
+        <v>38718</v>
       </c>
       <c r="B72">
         <v>1.119095299799744</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>73</v>
+      <c r="A73" s="2">
+        <v>38808</v>
       </c>
       <c r="B73">
         <v>1.712488350419384</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>74</v>
+      <c r="A74" s="2">
+        <v>38899</v>
       </c>
       <c r="B74">
         <v>0.7559271561104073</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>75</v>
+      <c r="A75" s="2">
+        <v>38991</v>
       </c>
       <c r="B75">
         <v>1.466409003069235</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>76</v>
+      <c r="A76" s="2">
+        <v>39083</v>
       </c>
       <c r="B76">
         <v>0.1344387183508742</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>77</v>
+      <c r="A77" s="2">
+        <v>39173</v>
       </c>
       <c r="B77">
         <v>0.6601029313045462</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>78</v>
+      <c r="A78" s="2">
+        <v>39264</v>
       </c>
       <c r="B78">
         <v>0.5112815382905501</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>79</v>
+      <c r="A79" s="2">
+        <v>39356</v>
       </c>
       <c r="B79">
         <v>0.7409045670684369</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>80</v>
+      <c r="A80" s="2">
+        <v>39448</v>
       </c>
       <c r="B80">
         <v>0.5817782656421527</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="1" t="s">
-        <v>81</v>
+      <c r="A81" s="2">
+        <v>39539</v>
       </c>
       <c r="B81">
         <v>-0.3601440576230474</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="1" t="s">
-        <v>82</v>
+      <c r="A82" s="2">
+        <v>39630</v>
       </c>
       <c r="B82">
         <v>-0.547645125958379</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>83</v>
+      <c r="A83" s="2">
+        <v>39722</v>
       </c>
       <c r="B83">
         <v>-1.552863436123344</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="1" t="s">
-        <v>84</v>
+      <c r="A84" s="2">
+        <v>39814</v>
       </c>
       <c r="B84">
         <v>-4.687325204161537</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="1" t="s">
-        <v>85</v>
+      <c r="A85" s="2">
+        <v>39904</v>
       </c>
       <c r="B85">
         <v>0.2464788732394293</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="1" t="s">
-        <v>86</v>
+      <c r="A86" s="2">
+        <v>39995</v>
       </c>
       <c r="B86">
         <v>0.6205362369745945</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="1" t="s">
-        <v>87</v>
+      <c r="A87" s="2">
+        <v>40087</v>
       </c>
       <c r="B87">
         <v>0.7679776588317392</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>88</v>
+      <c r="A88" s="2">
+        <v>40179</v>
       </c>
       <c r="B88">
         <v>0.7274826789838449</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>89</v>
+      <c r="A89" s="2">
+        <v>40269</v>
       </c>
       <c r="B89">
         <v>2.166685773243151</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1" t="s">
-        <v>90</v>
+      <c r="A90" s="2">
+        <v>40360</v>
       </c>
       <c r="B90">
         <v>0.9649910233393171</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
-        <v>91</v>
+      <c r="A91" s="2">
+        <v>40452</v>
       </c>
       <c r="B91">
         <v>0.6557012669481986</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1" t="s">
-        <v>92</v>
+      <c r="A92" s="2">
+        <v>40544</v>
       </c>
       <c r="B92">
         <v>1.810754112840897</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1" t="s">
-        <v>93</v>
+      <c r="A93" s="2">
+        <v>40634</v>
       </c>
       <c r="B93">
         <v>0.2711202689513068</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>94</v>
+      <c r="A94" s="2">
+        <v>40725</v>
       </c>
       <c r="B94">
         <v>0.5407743889249406</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1" t="s">
-        <v>95</v>
+      <c r="A95" s="2">
+        <v>40817</v>
       </c>
       <c r="B95">
         <v>-0.01075731497417266</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1" t="s">
-        <v>96</v>
+      <c r="A96" s="2">
+        <v>40909</v>
       </c>
       <c r="B96">
         <v>0.2151694459386798</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1" t="s">
-        <v>97</v>
+      <c r="A97" s="2">
+        <v>41000</v>
       </c>
       <c r="B97">
         <v>0.1073537305421302</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1" t="s">
-        <v>98</v>
+      <c r="A98" s="2">
+        <v>41091</v>
       </c>
       <c r="B98">
         <v>0.2037533512064319</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1" t="s">
-        <v>99</v>
+      <c r="A99" s="2">
+        <v>41183</v>
       </c>
       <c r="B99">
         <v>-0.2996575342465766</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1" t="s">
-        <v>100</v>
+      <c r="A100" s="2">
+        <v>41275</v>
       </c>
       <c r="B100">
         <v>-0.5581794761700257</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1" t="s">
-        <v>101</v>
+      <c r="A101" s="2">
+        <v>41365</v>
       </c>
       <c r="B101">
         <v>1.165803108808288</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1" t="s">
-        <v>102</v>
+      <c r="A102" s="2">
+        <v>41456</v>
       </c>
       <c r="B102">
         <v>0.5121638924455868</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>103</v>
+      <c r="A103" s="2">
+        <v>41548</v>
       </c>
       <c r="B103">
         <v>0.1486199575371556</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
+      <c r="A104" s="2">
+        <v>41640</v>
       </c>
       <c r="B104">
         <v>1.049395802416785</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>105</v>
+      <c r="A105" s="2">
+        <v>41730</v>
       </c>
       <c r="B105">
         <v>-0.02097975453686774</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>106</v>
+      <c r="A106" s="2">
+        <v>41821</v>
       </c>
       <c r="B106">
         <v>0.5560801594795941</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>107</v>
+      <c r="A107" s="2">
+        <v>41913</v>
       </c>
       <c r="B107">
         <v>0.7616861435726103</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>108</v>
+      <c r="A108" s="2">
+        <v>42005</v>
       </c>
       <c r="B108">
         <v>-0.2174588381484869</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>109</v>
+      <c r="A109" s="2">
+        <v>42095</v>
       </c>
       <c r="B109">
         <v>0.5188875051888751</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
-        <v>110</v>
+      <c r="A110" s="2">
+        <v>42186</v>
       </c>
       <c r="B110">
         <v>0.5368573198430684</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
-        <v>111</v>
+      <c r="A111" s="2">
+        <v>42278</v>
       </c>
       <c r="B111">
         <v>0.5134524543027316</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
-        <v>112</v>
+      <c r="A112" s="2">
+        <v>42370</v>
       </c>
       <c r="B112">
         <v>0.8786268900694724</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
-        <v>113</v>
+      <c r="A113" s="2">
+        <v>42461</v>
       </c>
       <c r="B113">
         <v>0.2228073728985202</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
-        <v>114</v>
+      <c r="A114" s="2">
+        <v>42552</v>
       </c>
       <c r="B114">
         <v>0.3536782538399439</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
-        <v>115</v>
+      <c r="A115" s="2">
+        <v>42644</v>
       </c>
       <c r="B115">
         <v>0.4631960527640658</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
-        <v>116</v>
+      <c r="A116" s="2">
+        <v>42736</v>
       </c>
       <c r="B116">
         <v>1.292973839831619</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
-        <v>117</v>
+      <c r="A117" s="2">
+        <v>42826</v>
       </c>
       <c r="B117">
         <v>0.7124480506629713</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
-        <v>118</v>
+      <c r="A118" s="2">
+        <v>42917</v>
       </c>
       <c r="B118">
         <v>0.7958341520927513</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
-        <v>119</v>
+      <c r="A119" s="2">
+        <v>43009</v>
       </c>
       <c r="B119">
         <v>1.01374402963251</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
-        <v>120</v>
+      <c r="A120" s="2">
+        <v>43101</v>
       </c>
       <c r="B120">
         <v>-0.5500337740036604</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
-        <v>121</v>
+      <c r="A121" s="2">
+        <v>43191</v>
       </c>
       <c r="B121">
         <v>0.7859499320784032</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
-        <v>122</v>
+      <c r="A122" s="2">
+        <v>43282</v>
       </c>
       <c r="B122">
         <v>-0.654664484451725</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
-        <v>123</v>
+      <c r="A123" s="2">
+        <v>43374</v>
       </c>
       <c r="B123">
         <v>0.4457796298090977</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
-        <v>124</v>
+      <c r="A124" s="2">
+        <v>43466</v>
       </c>
       <c r="B124">
         <v>0.6560540279787676</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
-        <v>125</v>
+      <c r="A125" s="2">
+        <v>43556</v>
       </c>
       <c r="B125">
         <v>0.05750982459503716</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
-        <v>126</v>
+      <c r="A126" s="2">
+        <v>43647</v>
       </c>
       <c r="B126">
         <v>0.3831784653702516</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
-        <v>127</v>
+      <c r="A127" s="2">
+        <v>43739</v>
       </c>
       <c r="B127">
         <v>-0.3340013360053521</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
-        <v>128</v>
+      <c r="A128" s="2">
+        <v>43831</v>
       </c>
       <c r="B128">
         <v>-2.029873611643053</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="1" t="s">
-        <v>129</v>
+      <c r="A129" s="2">
+        <v>43922</v>
       </c>
       <c r="B129">
         <v>-8.874120406567631</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="1" t="s">
-        <v>130</v>
+      <c r="A130" s="2">
+        <v>44013</v>
       </c>
       <c r="B130">
         <v>8.67653367653368</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="1" t="s">
-        <v>131</v>
+      <c r="A131" s="2">
+        <v>44105</v>
       </c>
       <c r="B131">
         <v>0.9671370768775328</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="1" t="s">
-        <v>132</v>
+      <c r="A132" s="2">
+        <v>44197</v>
       </c>
       <c r="B132">
         <v>-0.6157755840093788</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="1" t="s">
-        <v>133</v>
+      <c r="A133" s="2">
+        <v>44287</v>
       </c>
       <c r="B133">
         <v>2.350511408339877</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="1" t="s">
-        <v>134</v>
+      <c r="A134" s="2">
+        <v>44378</v>
       </c>
       <c r="B134">
         <v>0.08648025367541406</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="1" t="s">
-        <v>135</v>
+      <c r="A135" s="2">
+        <v>44470</v>
       </c>
       <c r="B135">
         <v>0.5376344086021527</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="1" t="s">
-        <v>136</v>
+      <c r="A136" s="2">
+        <v>44562</v>
       </c>
       <c r="B136">
         <v>0.6779984721161268</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="1" t="s">
-        <v>137</v>
+      <c r="A137" s="2">
+        <v>44652</v>
       </c>
       <c r="B137">
         <v>0.1517594612539093</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="1" t="s">
-        <v>138</v>
+      <c r="A138" s="2">
+        <v>44743</v>
       </c>
       <c r="B138">
         <v>0.2935884079931833</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
-        <v>139</v>
+      <c r="A139" s="2">
+        <v>44835</v>
       </c>
       <c r="B139">
         <v>-0.3493862134088806</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
-        <v>140</v>
+      <c r="A140" s="2">
+        <v>44927</v>
       </c>
       <c r="B140">
         <v>-0.473798919738463</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="1" t="s">
-        <v>141</v>
+      <c r="A141" s="2">
+        <v>45017</v>
       </c>
       <c r="B141">
         <v>-0.07616871370084576</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
-        <v>142</v>
+      <c r="A142" s="2">
+        <v>45108</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
-        <v>143</v>
+      <c r="A143" s="2">
+        <v>45200</v>
       </c>
       <c r="B143">
         <v>-0.2763220581229216</v>
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
-        <v>144</v>
+      <c r="A144" s="2">
+        <v>45292</v>
       </c>
       <c r="B144">
         <v>-0.1051022358111976</v>
       </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="1" t="s">
-        <v>145</v>
+      <c r="A145" s="2">
+        <v>45383</v>
       </c>
       <c r="B145">
         <v>-0.2582496413199388</v>
       </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
-        <v>146</v>
+      <c r="A146" s="2">
+        <v>45474</v>
       </c>
       <c r="B146">
         <v>0.01917913310317992</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1" t="s">
-        <v>147</v>
+      <c r="A147" s="2">
+        <v>45566</v>
       </c>
       <c r="B147">
         <v>0.1821668264621263</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
-        <v>148</v>
+      <c r="A148" s="2">
+        <v>45658</v>
       </c>
       <c r="B148">
         <v>0.3062494018566441</v>
       </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
-        <v>149</v>
+      <c r="A149" s="2">
+        <v>45748</v>
       </c>
       <c r="B149">
         <v>-0.2099036351493167</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
-        <v>150</v>
+      <c r="A150" s="2">
+        <v>45839</v>
       </c>
       <c r="B150">
         <v>0</v>

--- a/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
+++ b/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>32325</v>
+        <v>32370</v>
       </c>
       <c r="B2">
         <v>1.098540744384312</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>32417</v>
+        <v>32462</v>
       </c>
       <c r="B3">
         <v>1.200129743756086</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>32509</v>
+        <v>32554</v>
       </c>
       <c r="B4">
         <v>1.025641025641024</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>32599</v>
+        <v>32643</v>
       </c>
       <c r="B5">
         <v>0.4124365482233533</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>32690</v>
+        <v>32735</v>
       </c>
       <c r="B6">
         <v>0.9004739336492815</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>32782</v>
+        <v>32827</v>
       </c>
       <c r="B7">
         <v>1.174260216063888</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>32874</v>
+        <v>32919</v>
       </c>
       <c r="B8">
         <v>2.073661405137726</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>32964</v>
+        <v>33008</v>
       </c>
       <c r="B9">
         <v>0.4851425106124861</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>33055</v>
+        <v>33100</v>
       </c>
       <c r="B10">
         <v>2.112251056125549</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>33147</v>
+        <v>33192</v>
       </c>
       <c r="B11">
         <v>1.773049645390058</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>33239</v>
+        <v>33284</v>
       </c>
       <c r="B12">
         <v>2.758420441347268</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>33329</v>
+        <v>33373</v>
       </c>
       <c r="B13">
         <v>-0.4801581697500401</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>33420</v>
+        <v>33465</v>
       </c>
       <c r="B14">
         <v>-0.156094792110117</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>33512</v>
+        <v>33557</v>
       </c>
       <c r="B15">
         <v>1.43547470153497</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>33604</v>
+        <v>33649</v>
       </c>
       <c r="B16">
         <v>1.373125963289883</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>33695</v>
+        <v>33739</v>
       </c>
       <c r="B17">
         <v>-0.6219765031098669</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>33786</v>
+        <v>33831</v>
       </c>
       <c r="B18">
         <v>-0.2364394993045921</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>33878</v>
+        <v>33923</v>
       </c>
       <c r="B19">
         <v>-0.2788233653980243</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>33970</v>
+        <v>34015</v>
       </c>
       <c r="B20">
         <v>-0.7968684468055465</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>34060</v>
+        <v>34104</v>
       </c>
       <c r="B21">
         <v>0.01409244644871071</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>34151</v>
+        <v>34196</v>
       </c>
       <c r="B22">
         <v>0.5917993518388075</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>34243</v>
+        <v>34288</v>
       </c>
       <c r="B23">
         <v>-0.08404538450763731</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>34335</v>
+        <v>34380</v>
       </c>
       <c r="B24">
         <v>1.415954016542836</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>34425</v>
+        <v>34469</v>
       </c>
       <c r="B25">
         <v>0.5529444290848651</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>34516</v>
+        <v>34561</v>
       </c>
       <c r="B26">
         <v>0.5911465493538725</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>34608</v>
+        <v>34653</v>
       </c>
       <c r="B27">
         <v>1.107011070110704</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>34700</v>
+        <v>34745</v>
       </c>
       <c r="B28">
         <v>-0.3919978372533202</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>34790</v>
+        <v>34834</v>
       </c>
       <c r="B29">
         <v>0.8006513773917809</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>34881</v>
+        <v>34926</v>
       </c>
       <c r="B30">
         <v>0.2019386106623663</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>34973</v>
+        <v>35018</v>
       </c>
       <c r="B31">
         <v>0.04030632809349311</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>35065</v>
+        <v>35110</v>
       </c>
       <c r="B32">
         <v>-0.7117915659414276</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>35156</v>
+        <v>35200</v>
       </c>
       <c r="B33">
         <v>1.366157175706737</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>35247</v>
+        <v>35292</v>
       </c>
       <c r="B34">
         <v>0.3869762476648069</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>35339</v>
+        <v>35384</v>
       </c>
       <c r="B35">
         <v>0.9171872923035993</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>35431</v>
+        <v>35476</v>
       </c>
       <c r="B36">
         <v>-0.513698630136987</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>35521</v>
+        <v>35565</v>
       </c>
       <c r="B37">
         <v>1.11214087117702</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>35612</v>
+        <v>35657</v>
       </c>
       <c r="B38">
         <v>0.3928244074898483</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>35704</v>
+        <v>35749</v>
       </c>
       <c r="B39">
         <v>0.7434459371331592</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>35796</v>
+        <v>35841</v>
       </c>
       <c r="B40">
         <v>0.95805282237184</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>35886</v>
+        <v>35930</v>
       </c>
       <c r="B41">
         <v>-0.4616568350859187</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>35977</v>
+        <v>36022</v>
       </c>
       <c r="B42">
         <v>0.4895645452202981</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>36069</v>
+        <v>36114</v>
       </c>
       <c r="B43">
         <v>-0.02564102564102054</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>36161</v>
+        <v>36206</v>
       </c>
       <c r="B44">
         <v>1.154142087714788</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>36251</v>
+        <v>36295</v>
       </c>
       <c r="B45">
         <v>-0.1267748478701753</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>36342</v>
+        <v>36387</v>
       </c>
       <c r="B46">
         <v>1.370906321401369</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>36434</v>
+        <v>36479</v>
       </c>
       <c r="B47">
         <v>0.4758327072376602</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>36526</v>
+        <v>36571</v>
       </c>
       <c r="B48">
         <v>1.545363908275186</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>36617</v>
+        <v>36661</v>
       </c>
       <c r="B49">
         <v>0.7977417771232099</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>36708</v>
+        <v>36753</v>
       </c>
       <c r="B50">
         <v>0.07305491294289818</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>36800</v>
+        <v>36845</v>
       </c>
       <c r="B51">
         <v>-0.4258425599221248</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>36892</v>
+        <v>36937</v>
       </c>
       <c r="B52">
         <v>2.126099706744862</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>36982</v>
+        <v>37026</v>
       </c>
       <c r="B53">
         <v>-0.2512562814070277</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>37073</v>
+        <v>37118</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>37165</v>
+        <v>37210</v>
       </c>
       <c r="B55">
         <v>-0.3118627803766404</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>37257</v>
+        <v>37302</v>
       </c>
       <c r="B56">
         <v>-0.4692576103958616</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>37347</v>
+        <v>37391</v>
       </c>
       <c r="B57">
         <v>0.3868471953578426</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>37438</v>
+        <v>37483</v>
       </c>
       <c r="B58">
         <v>0.68641618497109</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>37530</v>
+        <v>37575</v>
       </c>
       <c r="B59">
         <v>-0.2750867121157804</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>37622</v>
+        <v>37667</v>
       </c>
       <c r="B60">
         <v>-1.355241065003592</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>37712</v>
+        <v>37756</v>
       </c>
       <c r="B61">
         <v>0.1458966565349599</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>37803</v>
+        <v>37848</v>
       </c>
       <c r="B62">
         <v>0.9105256768240864</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>37895</v>
+        <v>37940</v>
       </c>
       <c r="B63">
         <v>0.1203079884504263</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>37987</v>
+        <v>38032</v>
       </c>
       <c r="B64">
         <v>-0.1562124489305401</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>38078</v>
+        <v>38122</v>
       </c>
       <c r="B65">
         <v>0.589721988205554</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>38169</v>
+        <v>38214</v>
       </c>
       <c r="B66">
         <v>-0.323043790380469</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>38261</v>
+        <v>38306</v>
       </c>
       <c r="B67">
         <v>-0.03601008282319185</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>38353</v>
+        <v>38398</v>
       </c>
       <c r="B68">
         <v>0.1560999039385152</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>38443</v>
+        <v>38487</v>
       </c>
       <c r="B69">
         <v>0.5994485073732168</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>38534</v>
+        <v>38579</v>
       </c>
       <c r="B70">
         <v>0.7865570253843364</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>38626</v>
+        <v>38671</v>
       </c>
       <c r="B71">
         <v>0.3783847700130157</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>38718</v>
+        <v>38763</v>
       </c>
       <c r="B72">
         <v>1.119095299799744</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>38808</v>
+        <v>38852</v>
       </c>
       <c r="B73">
         <v>1.712488350419384</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>38899</v>
+        <v>38944</v>
       </c>
       <c r="B74">
         <v>0.7559271561104073</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>38991</v>
+        <v>39036</v>
       </c>
       <c r="B75">
         <v>1.466409003069235</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>39083</v>
+        <v>39128</v>
       </c>
       <c r="B76">
         <v>0.1344387183508742</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>39173</v>
+        <v>39217</v>
       </c>
       <c r="B77">
         <v>0.6601029313045462</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>39264</v>
+        <v>39309</v>
       </c>
       <c r="B78">
         <v>0.5112815382905501</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>39356</v>
+        <v>39401</v>
       </c>
       <c r="B79">
         <v>0.7409045670684369</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>39448</v>
+        <v>39493</v>
       </c>
       <c r="B80">
         <v>0.5817782656421527</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>39539</v>
+        <v>39583</v>
       </c>
       <c r="B81">
         <v>-0.3601440576230474</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>39630</v>
+        <v>39675</v>
       </c>
       <c r="B82">
         <v>-0.547645125958379</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>39722</v>
+        <v>39767</v>
       </c>
       <c r="B83">
         <v>-1.552863436123344</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>39814</v>
+        <v>39859</v>
       </c>
       <c r="B84">
         <v>-4.687325204161537</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>39904</v>
+        <v>39948</v>
       </c>
       <c r="B85">
         <v>0.2464788732394293</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>39995</v>
+        <v>40040</v>
       </c>
       <c r="B86">
         <v>0.6205362369745945</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>40087</v>
+        <v>40132</v>
       </c>
       <c r="B87">
         <v>0.7679776588317392</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>40179</v>
+        <v>40224</v>
       </c>
       <c r="B88">
         <v>0.7274826789838449</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="B89">
         <v>2.166685773243151</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="B90">
         <v>0.9649910233393171</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="B91">
         <v>0.6557012669481986</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="B92">
         <v>1.810754112840897</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="B93">
         <v>0.2711202689513068</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="B94">
         <v>0.5407743889249406</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="B95">
         <v>-0.01075731497417266</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="B96">
         <v>0.2151694459386798</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="B97">
         <v>0.1073537305421302</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="B98">
         <v>0.2037533512064319</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="B99">
         <v>-0.2996575342465766</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="B100">
         <v>-0.5581794761700257</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="B101">
         <v>1.165803108808288</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="B102">
         <v>0.5121638924455868</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="B103">
         <v>0.1486199575371556</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="B104">
         <v>1.049395802416785</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="B105">
         <v>-0.02097975453686774</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="B106">
         <v>0.5560801594795941</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="B107">
         <v>0.7616861435726103</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="B108">
         <v>-0.2174588381484869</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="B109">
         <v>0.5188875051888751</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="B110">
         <v>0.5368573198430684</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="B111">
         <v>0.5134524543027316</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="B112">
         <v>0.8786268900694724</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="B113">
         <v>0.2228073728985202</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="B114">
         <v>0.3536782538399439</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="B115">
         <v>0.4631960527640658</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="B116">
         <v>1.292973839831619</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="B117">
         <v>0.7124480506629713</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="B118">
         <v>0.7958341520927513</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="B119">
         <v>1.01374402963251</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="B120">
         <v>-0.5500337740036604</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="B121">
         <v>0.7859499320784032</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="B122">
         <v>-0.654664484451725</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="B123">
         <v>0.4457796298090977</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="B124">
         <v>0.6560540279787676</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="B125">
         <v>0.05750982459503716</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="B126">
         <v>0.3831784653702516</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="B127">
         <v>-0.3340013360053521</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="B128">
         <v>-2.029873611643053</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="B129">
         <v>-8.874120406567631</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="B130">
         <v>8.67653367653368</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="B131">
         <v>0.9671370768775328</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="B132">
         <v>-0.6157755840093788</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="B133">
         <v>2.350511408339877</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="B134">
         <v>0.08648025367541406</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="B135">
         <v>0.5376344086021527</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="B136">
         <v>0.6779984721161268</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="B137">
         <v>0.1517594612539093</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="B138">
         <v>0.2935884079931833</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="B139">
         <v>-0.3493862134088806</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="B140">
         <v>-0.473798919738463</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45017</v>
+        <v>45061</v>
       </c>
       <c r="B141">
         <v>-0.07616871370084576</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45108</v>
+        <v>45153</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45200</v>
+        <v>45245</v>
       </c>
       <c r="B143">
         <v>-0.2763220581229216</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45292</v>
+        <v>45337</v>
       </c>
       <c r="B144">
         <v>-0.1051022358111976</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45383</v>
+        <v>45427</v>
       </c>
       <c r="B145">
         <v>-0.2582496413199388</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45474</v>
+        <v>45519</v>
       </c>
       <c r="B146">
         <v>0.01917913310317992</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45566</v>
+        <v>45611</v>
       </c>
       <c r="B147">
         <v>0.1821668264621263</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45658</v>
+        <v>45703</v>
       </c>
       <c r="B148">
         <v>0.3062494018566441</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45748</v>
+        <v>45792</v>
       </c>
       <c r="B149">
         <v>-0.2099036351493167</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45839</v>
+        <v>45884</v>
       </c>
       <c r="B150">
         <v>0</v>

--- a/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
+++ b/0_1_Output_Data/1_GDP_Evaluation_series/latest_release_qoq_GDP.xlsx
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>32370</v>
+        <v>32325</v>
       </c>
       <c r="B2">
         <v>1.098540744384312</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>32462</v>
+        <v>32417</v>
       </c>
       <c r="B3">
         <v>1.200129743756086</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>32554</v>
+        <v>32509</v>
       </c>
       <c r="B4">
         <v>1.025641025641024</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>32643</v>
+        <v>32599</v>
       </c>
       <c r="B5">
         <v>0.4124365482233533</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>32735</v>
+        <v>32690</v>
       </c>
       <c r="B6">
         <v>0.9004739336492815</v>
@@ -439,7 +439,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>32827</v>
+        <v>32782</v>
       </c>
       <c r="B7">
         <v>1.174260216063888</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>32919</v>
+        <v>32874</v>
       </c>
       <c r="B8">
         <v>2.073661405137726</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>33008</v>
+        <v>32964</v>
       </c>
       <c r="B9">
         <v>0.4851425106124861</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>33100</v>
+        <v>33055</v>
       </c>
       <c r="B10">
         <v>2.112251056125549</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>33192</v>
+        <v>33147</v>
       </c>
       <c r="B11">
         <v>1.773049645390058</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>33284</v>
+        <v>33239</v>
       </c>
       <c r="B12">
         <v>2.758420441347268</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>33373</v>
+        <v>33329</v>
       </c>
       <c r="B13">
         <v>-0.4801581697500401</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>33465</v>
+        <v>33420</v>
       </c>
       <c r="B14">
         <v>-0.156094792110117</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>33557</v>
+        <v>33512</v>
       </c>
       <c r="B15">
         <v>1.43547470153497</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>33649</v>
+        <v>33604</v>
       </c>
       <c r="B16">
         <v>1.373125963289883</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>33739</v>
+        <v>33695</v>
       </c>
       <c r="B17">
         <v>-0.6219765031098669</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>33831</v>
+        <v>33786</v>
       </c>
       <c r="B18">
         <v>-0.2364394993045921</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>33923</v>
+        <v>33878</v>
       </c>
       <c r="B19">
         <v>-0.2788233653980243</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>34015</v>
+        <v>33970</v>
       </c>
       <c r="B20">
         <v>-0.7968684468055465</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>34104</v>
+        <v>34060</v>
       </c>
       <c r="B21">
         <v>0.01409244644871071</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>34196</v>
+        <v>34151</v>
       </c>
       <c r="B22">
         <v>0.5917993518388075</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>34288</v>
+        <v>34243</v>
       </c>
       <c r="B23">
         <v>-0.08404538450763731</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>34380</v>
+        <v>34335</v>
       </c>
       <c r="B24">
         <v>1.415954016542836</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>34469</v>
+        <v>34425</v>
       </c>
       <c r="B25">
         <v>0.5529444290848651</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>34561</v>
+        <v>34516</v>
       </c>
       <c r="B26">
         <v>0.5911465493538725</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>34653</v>
+        <v>34608</v>
       </c>
       <c r="B27">
         <v>1.107011070110704</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>34745</v>
+        <v>34700</v>
       </c>
       <c r="B28">
         <v>-0.3919978372533202</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>34834</v>
+        <v>34790</v>
       </c>
       <c r="B29">
         <v>0.8006513773917809</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>34926</v>
+        <v>34881</v>
       </c>
       <c r="B30">
         <v>0.2019386106623663</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>35018</v>
+        <v>34973</v>
       </c>
       <c r="B31">
         <v>0.04030632809349311</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>35110</v>
+        <v>35065</v>
       </c>
       <c r="B32">
         <v>-0.7117915659414276</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>35200</v>
+        <v>35156</v>
       </c>
       <c r="B33">
         <v>1.366157175706737</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>35292</v>
+        <v>35247</v>
       </c>
       <c r="B34">
         <v>0.3869762476648069</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>35384</v>
+        <v>35339</v>
       </c>
       <c r="B35">
         <v>0.9171872923035993</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>35476</v>
+        <v>35431</v>
       </c>
       <c r="B36">
         <v>-0.513698630136987</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>35565</v>
+        <v>35521</v>
       </c>
       <c r="B37">
         <v>1.11214087117702</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>35657</v>
+        <v>35612</v>
       </c>
       <c r="B38">
         <v>0.3928244074898483</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>35749</v>
+        <v>35704</v>
       </c>
       <c r="B39">
         <v>0.7434459371331592</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>35841</v>
+        <v>35796</v>
       </c>
       <c r="B40">
         <v>0.95805282237184</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>35930</v>
+        <v>35886</v>
       </c>
       <c r="B41">
         <v>-0.4616568350859187</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>36022</v>
+        <v>35977</v>
       </c>
       <c r="B42">
         <v>0.4895645452202981</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>36114</v>
+        <v>36069</v>
       </c>
       <c r="B43">
         <v>-0.02564102564102054</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>36206</v>
+        <v>36161</v>
       </c>
       <c r="B44">
         <v>1.154142087714788</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>36295</v>
+        <v>36251</v>
       </c>
       <c r="B45">
         <v>-0.1267748478701753</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>36387</v>
+        <v>36342</v>
       </c>
       <c r="B46">
         <v>1.370906321401369</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>36479</v>
+        <v>36434</v>
       </c>
       <c r="B47">
         <v>0.4758327072376602</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>36571</v>
+        <v>36526</v>
       </c>
       <c r="B48">
         <v>1.545363908275186</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>36661</v>
+        <v>36617</v>
       </c>
       <c r="B49">
         <v>0.7977417771232099</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>36753</v>
+        <v>36708</v>
       </c>
       <c r="B50">
         <v>0.07305491294289818</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>36845</v>
+        <v>36800</v>
       </c>
       <c r="B51">
         <v>-0.4258425599221248</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>36937</v>
+        <v>36892</v>
       </c>
       <c r="B52">
         <v>2.126099706744862</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>37026</v>
+        <v>36982</v>
       </c>
       <c r="B53">
         <v>-0.2512562814070277</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>37118</v>
+        <v>37073</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>37210</v>
+        <v>37165</v>
       </c>
       <c r="B55">
         <v>-0.3118627803766404</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>37302</v>
+        <v>37257</v>
       </c>
       <c r="B56">
         <v>-0.4692576103958616</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>37391</v>
+        <v>37347</v>
       </c>
       <c r="B57">
         <v>0.3868471953578426</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>37483</v>
+        <v>37438</v>
       </c>
       <c r="B58">
         <v>0.68641618497109</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>37575</v>
+        <v>37530</v>
       </c>
       <c r="B59">
         <v>-0.2750867121157804</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>37667</v>
+        <v>37622</v>
       </c>
       <c r="B60">
         <v>-1.355241065003592</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>37756</v>
+        <v>37712</v>
       </c>
       <c r="B61">
         <v>0.1458966565349599</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>37848</v>
+        <v>37803</v>
       </c>
       <c r="B62">
         <v>0.9105256768240864</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>37940</v>
+        <v>37895</v>
       </c>
       <c r="B63">
         <v>0.1203079884504263</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>38032</v>
+        <v>37987</v>
       </c>
       <c r="B64">
         <v>-0.1562124489305401</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>38122</v>
+        <v>38078</v>
       </c>
       <c r="B65">
         <v>0.589721988205554</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>38214</v>
+        <v>38169</v>
       </c>
       <c r="B66">
         <v>-0.323043790380469</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>38306</v>
+        <v>38261</v>
       </c>
       <c r="B67">
         <v>-0.03601008282319185</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>38398</v>
+        <v>38353</v>
       </c>
       <c r="B68">
         <v>0.1560999039385152</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>38487</v>
+        <v>38443</v>
       </c>
       <c r="B69">
         <v>0.5994485073732168</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>38579</v>
+        <v>38534</v>
       </c>
       <c r="B70">
         <v>0.7865570253843364</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>38671</v>
+        <v>38626</v>
       </c>
       <c r="B71">
         <v>0.3783847700130157</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>38763</v>
+        <v>38718</v>
       </c>
       <c r="B72">
         <v>1.119095299799744</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>38852</v>
+        <v>38808</v>
       </c>
       <c r="B73">
         <v>1.712488350419384</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>38944</v>
+        <v>38899</v>
       </c>
       <c r="B74">
         <v>0.7559271561104073</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>39036</v>
+        <v>38991</v>
       </c>
       <c r="B75">
         <v>1.466409003069235</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>39128</v>
+        <v>39083</v>
       </c>
       <c r="B76">
         <v>0.1344387183508742</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>39217</v>
+        <v>39173</v>
       </c>
       <c r="B77">
         <v>0.6601029313045462</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>39309</v>
+        <v>39264</v>
       </c>
       <c r="B78">
         <v>0.5112815382905501</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>39401</v>
+        <v>39356</v>
       </c>
       <c r="B79">
         <v>0.7409045670684369</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>39493</v>
+        <v>39448</v>
       </c>
       <c r="B80">
         <v>0.5817782656421527</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>39583</v>
+        <v>39539</v>
       </c>
       <c r="B81">
         <v>-0.3601440576230474</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>39675</v>
+        <v>39630</v>
       </c>
       <c r="B82">
         <v>-0.547645125958379</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>39767</v>
+        <v>39722</v>
       </c>
       <c r="B83">
         <v>-1.552863436123344</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>39859</v>
+        <v>39814</v>
       </c>
       <c r="B84">
         <v>-4.687325204161537</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>39948</v>
+        <v>39904</v>
       </c>
       <c r="B85">
         <v>0.2464788732394293</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>40040</v>
+        <v>39995</v>
       </c>
       <c r="B86">
         <v>0.6205362369745945</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>40132</v>
+        <v>40087</v>
       </c>
       <c r="B87">
         <v>0.7679776588317392</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>40224</v>
+        <v>40179</v>
       </c>
       <c r="B88">
         <v>0.7274826789838449</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>40313</v>
+        <v>40269</v>
       </c>
       <c r="B89">
         <v>2.166685773243151</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>40405</v>
+        <v>40360</v>
       </c>
       <c r="B90">
         <v>0.9649910233393171</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>40497</v>
+        <v>40452</v>
       </c>
       <c r="B91">
         <v>0.6557012669481986</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>40589</v>
+        <v>40544</v>
       </c>
       <c r="B92">
         <v>1.810754112840897</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>40678</v>
+        <v>40634</v>
       </c>
       <c r="B93">
         <v>0.2711202689513068</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>40770</v>
+        <v>40725</v>
       </c>
       <c r="B94">
         <v>0.5407743889249406</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>40862</v>
+        <v>40817</v>
       </c>
       <c r="B95">
         <v>-0.01075731497417266</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>40954</v>
+        <v>40909</v>
       </c>
       <c r="B96">
         <v>0.2151694459386798</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>41044</v>
+        <v>41000</v>
       </c>
       <c r="B97">
         <v>0.1073537305421302</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>41136</v>
+        <v>41091</v>
       </c>
       <c r="B98">
         <v>0.2037533512064319</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>41228</v>
+        <v>41183</v>
       </c>
       <c r="B99">
         <v>-0.2996575342465766</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>41320</v>
+        <v>41275</v>
       </c>
       <c r="B100">
         <v>-0.5581794761700257</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>41409</v>
+        <v>41365</v>
       </c>
       <c r="B101">
         <v>1.165803108808288</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>41501</v>
+        <v>41456</v>
       </c>
       <c r="B102">
         <v>0.5121638924455868</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>41593</v>
+        <v>41548</v>
       </c>
       <c r="B103">
         <v>0.1486199575371556</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>41685</v>
+        <v>41640</v>
       </c>
       <c r="B104">
         <v>1.049395802416785</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>41774</v>
+        <v>41730</v>
       </c>
       <c r="B105">
         <v>-0.02097975453686774</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>41866</v>
+        <v>41821</v>
       </c>
       <c r="B106">
         <v>0.5560801594795941</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>41958</v>
+        <v>41913</v>
       </c>
       <c r="B107">
         <v>0.7616861435726103</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>42050</v>
+        <v>42005</v>
       </c>
       <c r="B108">
         <v>-0.2174588381484869</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>42139</v>
+        <v>42095</v>
       </c>
       <c r="B109">
         <v>0.5188875051888751</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>42231</v>
+        <v>42186</v>
       </c>
       <c r="B110">
         <v>0.5368573198430684</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>42323</v>
+        <v>42278</v>
       </c>
       <c r="B111">
         <v>0.5134524543027316</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>42415</v>
+        <v>42370</v>
       </c>
       <c r="B112">
         <v>0.8786268900694724</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>42505</v>
+        <v>42461</v>
       </c>
       <c r="B113">
         <v>0.2228073728985202</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>42597</v>
+        <v>42552</v>
       </c>
       <c r="B114">
         <v>0.3536782538399439</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>42689</v>
+        <v>42644</v>
       </c>
       <c r="B115">
         <v>0.4631960527640658</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>42781</v>
+        <v>42736</v>
       </c>
       <c r="B116">
         <v>1.292973839831619</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>42870</v>
+        <v>42826</v>
       </c>
       <c r="B117">
         <v>0.7124480506629713</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>42962</v>
+        <v>42917</v>
       </c>
       <c r="B118">
         <v>0.7958341520927513</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>43054</v>
+        <v>43009</v>
       </c>
       <c r="B119">
         <v>1.01374402963251</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>43146</v>
+        <v>43101</v>
       </c>
       <c r="B120">
         <v>-0.5500337740036604</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>43235</v>
+        <v>43191</v>
       </c>
       <c r="B121">
         <v>0.7859499320784032</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>43327</v>
+        <v>43282</v>
       </c>
       <c r="B122">
         <v>-0.654664484451725</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>43419</v>
+        <v>43374</v>
       </c>
       <c r="B123">
         <v>0.4457796298090977</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>43511</v>
+        <v>43466</v>
       </c>
       <c r="B124">
         <v>0.6560540279787676</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>43600</v>
+        <v>43556</v>
       </c>
       <c r="B125">
         <v>0.05750982459503716</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>43692</v>
+        <v>43647</v>
       </c>
       <c r="B126">
         <v>0.3831784653702516</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>43784</v>
+        <v>43739</v>
       </c>
       <c r="B127">
         <v>-0.3340013360053521</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>43876</v>
+        <v>43831</v>
       </c>
       <c r="B128">
         <v>-2.029873611643053</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>43966</v>
+        <v>43922</v>
       </c>
       <c r="B129">
         <v>-8.874120406567631</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>44058</v>
+        <v>44013</v>
       </c>
       <c r="B130">
         <v>8.67653367653368</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>44150</v>
+        <v>44105</v>
       </c>
       <c r="B131">
         <v>0.9671370768775328</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>44242</v>
+        <v>44197</v>
       </c>
       <c r="B132">
         <v>-0.6157755840093788</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>44331</v>
+        <v>44287</v>
       </c>
       <c r="B133">
         <v>2.350511408339877</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>44423</v>
+        <v>44378</v>
       </c>
       <c r="B134">
         <v>0.08648025367541406</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>44515</v>
+        <v>44470</v>
       </c>
       <c r="B135">
         <v>0.5376344086021527</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>44607</v>
+        <v>44562</v>
       </c>
       <c r="B136">
         <v>0.6779984721161268</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>44696</v>
+        <v>44652</v>
       </c>
       <c r="B137">
         <v>0.1517594612539093</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>44788</v>
+        <v>44743</v>
       </c>
       <c r="B138">
         <v>0.2935884079931833</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>44880</v>
+        <v>44835</v>
       </c>
       <c r="B139">
         <v>-0.3493862134088806</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>44972</v>
+        <v>44927</v>
       </c>
       <c r="B140">
         <v>-0.473798919738463</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>45061</v>
+        <v>45017</v>
       </c>
       <c r="B141">
         <v>-0.07616871370084576</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>45153</v>
+        <v>45108</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>45245</v>
+        <v>45200</v>
       </c>
       <c r="B143">
         <v>-0.2763220581229216</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>45337</v>
+        <v>45292</v>
       </c>
       <c r="B144">
         <v>-0.1051022358111976</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>45427</v>
+        <v>45383</v>
       </c>
       <c r="B145">
         <v>-0.2582496413199388</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>45519</v>
+        <v>45474</v>
       </c>
       <c r="B146">
         <v>0.01917913310317992</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>45611</v>
+        <v>45566</v>
       </c>
       <c r="B147">
         <v>0.1821668264621263</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>45703</v>
+        <v>45658</v>
       </c>
       <c r="B148">
         <v>0.3062494018566441</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>45792</v>
+        <v>45748</v>
       </c>
       <c r="B149">
         <v>-0.2099036351493167</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>45884</v>
+        <v>45839</v>
       </c>
       <c r="B150">
         <v>0</v>
